--- a/run_log/run_results/train_history/training_history_run_16.xlsx
+++ b/run_log/run_results/train_history/training_history_run_16.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.05044819414615631</v>
+        <v>0.1395025849342346</v>
       </c>
       <c r="B2">
-        <v>0.9858933687210083</v>
+        <v>0.9664603471755981</v>
       </c>
       <c r="C2">
-        <v>0.136243149638176</v>
+        <v>0.01732644811272621</v>
       </c>
       <c r="D2">
-        <v>0.9609329700469971</v>
+        <v>0.9978384375572205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007967865094542503</v>
+        <v>0.02597234398126602</v>
       </c>
       <c r="B3">
-        <v>0.9984061717987061</v>
+        <v>0.9944161772727966</v>
       </c>
       <c r="C3">
-        <v>0.09372364729642868</v>
+        <v>0.01285681594163179</v>
       </c>
       <c r="D3">
-        <v>0.9625526666641235</v>
+        <v>0.9981797337532043</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004656226374208927</v>
+        <v>0.01831133104860783</v>
       </c>
       <c r="B4">
-        <v>0.9988581538200378</v>
+        <v>0.9941774010658264</v>
       </c>
       <c r="C4">
-        <v>0.1498617678880692</v>
+        <v>0.00878625363111496</v>
       </c>
       <c r="D4">
-        <v>0.9635244607925415</v>
+        <v>0.9985210299491882</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001614569104276597</v>
+        <v>0.01359660737216473</v>
       </c>
       <c r="B5">
-        <v>0.9995718002319336</v>
+        <v>0.9949120879173279</v>
       </c>
       <c r="C5">
-        <v>0.1493326127529144</v>
+        <v>0.005402940325438976</v>
       </c>
       <c r="D5">
-        <v>0.9632005095481873</v>
+        <v>0.9987486004829407</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001825388520956039</v>
+        <v>0.01151106134057045</v>
       </c>
       <c r="B6">
-        <v>0.9995242357254028</v>
+        <v>0.995316207408905</v>
       </c>
       <c r="C6">
-        <v>0.08639948815107346</v>
+        <v>0.004714337643235922</v>
       </c>
       <c r="D6">
-        <v>0.9777777791023254</v>
+        <v>0.9993174076080322</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0008844116819091141</v>
+        <v>0.01155757997184992</v>
       </c>
       <c r="B7">
-        <v>0.9997859001159668</v>
+        <v>0.9953896999359131</v>
       </c>
       <c r="C7">
-        <v>0.1740774065256119</v>
+        <v>0.004734234418720007</v>
       </c>
       <c r="D7">
-        <v>0.9641075730323792</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0006745791179127991</v>
+        <v>0.01037962362170219</v>
       </c>
       <c r="B8">
-        <v>0.9998334646224976</v>
+        <v>0.9954080581665039</v>
       </c>
       <c r="C8">
-        <v>0.1666062325239182</v>
+        <v>0.005438288208097219</v>
       </c>
       <c r="D8">
-        <v>0.9650793671607971</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0004705659521277994</v>
+        <v>0.01127995643764734</v>
       </c>
       <c r="B9">
-        <v>0.9998334646224976</v>
+        <v>0.9948018789291382</v>
       </c>
       <c r="C9">
-        <v>0.266895055770874</v>
+        <v>0.005241305101662874</v>
       </c>
       <c r="D9">
-        <v>0.9698088765144348</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001290346262976527</v>
+        <v>0.01073058973997831</v>
       </c>
       <c r="B10">
-        <v>0.9996669888496399</v>
+        <v>0.9949672222137451</v>
       </c>
       <c r="C10">
-        <v>0.2587710320949554</v>
+        <v>0.004750982392579317</v>
       </c>
       <c r="D10">
-        <v>0.9611920714378357</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.000567925744690001</v>
+        <v>0.01088981982320547</v>
       </c>
       <c r="B11">
-        <v>0.9998572468757629</v>
+        <v>0.9953345656394958</v>
       </c>
       <c r="C11">
-        <v>0.2247802317142487</v>
+        <v>0.005035346373915672</v>
       </c>
       <c r="D11">
-        <v>0.9608681797981262</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0005536173121072352</v>
+        <v>0.009973933920264244</v>
       </c>
       <c r="B12">
-        <v>0.9998810291290283</v>
+        <v>0.9952243566513062</v>
       </c>
       <c r="C12">
-        <v>0.1584392338991165</v>
+        <v>0.005365626886487007</v>
       </c>
       <c r="D12">
-        <v>0.9652737379074097</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0001975926134036854</v>
+        <v>0.01005701813846827</v>
       </c>
       <c r="B13">
-        <v>0.9999524354934692</v>
+        <v>0.9954999089241028</v>
       </c>
       <c r="C13">
-        <v>0.1918883919715881</v>
+        <v>0.005820718593895435</v>
       </c>
       <c r="D13">
-        <v>0.9627469778060913</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0004343831969890743</v>
+        <v>0.009635179303586483</v>
       </c>
       <c r="B14">
-        <v>0.9998096823692322</v>
+        <v>0.9962896704673767</v>
       </c>
       <c r="C14">
-        <v>0.1444299072027206</v>
+        <v>0.005509081296622753</v>
       </c>
       <c r="D14">
-        <v>0.9609977602958679</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0006203927332535386</v>
+        <v>0.008531605824828148</v>
       </c>
       <c r="B15">
-        <v>0.9998096823692322</v>
+        <v>0.9976673126220703</v>
       </c>
       <c r="C15">
-        <v>0.1345143020153046</v>
+        <v>0.006082512438297272</v>
       </c>
       <c r="D15">
-        <v>0.9615160226821899</v>
+        <v>0.9987486004829407</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0002133954258169979</v>
+        <v>0.007129268255084753</v>
       </c>
       <c r="B16">
-        <v>0.9999286532402039</v>
+        <v>0.9978693127632141</v>
       </c>
       <c r="C16">
-        <v>0.02873676456511021</v>
+        <v>0.00595078943297267</v>
       </c>
       <c r="D16">
-        <v>0.9878847002983093</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.000181247727596201</v>
+        <v>0.00708261551335454</v>
       </c>
       <c r="B17">
-        <v>0.9999286532402039</v>
+        <v>0.9981265068054199</v>
       </c>
       <c r="C17">
-        <v>0.1502455770969391</v>
+        <v>0.006320483051240444</v>
       </c>
       <c r="D17">
-        <v>0.9629413485527039</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.000297484832117334</v>
+        <v>0.007292637601494789</v>
       </c>
       <c r="B18">
-        <v>0.9998810291290283</v>
+        <v>0.9977958798408508</v>
       </c>
       <c r="C18">
-        <v>0.1018117964267731</v>
+        <v>0.00592965679243207</v>
       </c>
       <c r="D18">
-        <v>0.9771946668624878</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>4.335961057222448E-05</v>
+        <v>0.006568565033376217</v>
       </c>
       <c r="B19">
-        <v>0.9999762177467346</v>
+        <v>0.9981080889701843</v>
       </c>
       <c r="C19">
-        <v>0.1109665408730507</v>
+        <v>0.006541531998664141</v>
       </c>
       <c r="D19">
-        <v>0.9655976891517639</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.001140973996371031</v>
+        <v>0.007550589274615049</v>
       </c>
       <c r="B20">
-        <v>0.9998334646224976</v>
+        <v>0.9977223873138428</v>
       </c>
       <c r="C20">
-        <v>0.05782092362642288</v>
+        <v>0.006911433301866055</v>
       </c>
       <c r="D20">
-        <v>0.9793974757194519</v>
+        <v>0.9993174076080322</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>2.883062006731052E-05</v>
+        <v>0.006698807701468468</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9981265068054199</v>
       </c>
       <c r="C21">
-        <v>0.05227243527770042</v>
+        <v>0.006295342929661274</v>
       </c>
       <c r="D21">
-        <v>0.9782313108444214</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1.409337164659519E-05</v>
+        <v>0.007235968019813299</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9977591037750244</v>
       </c>
       <c r="C22">
-        <v>0.05014722421765327</v>
+        <v>0.006155957467854023</v>
       </c>
       <c r="D22">
-        <v>0.9781017303466797</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002031956246355549</v>
+        <v>0.0072016641497612</v>
       </c>
       <c r="B23">
-        <v>0.9999524354934692</v>
+        <v>0.9979428052902222</v>
       </c>
       <c r="C23">
-        <v>0.02343389019370079</v>
+        <v>0.00726740388199687</v>
       </c>
       <c r="D23">
-        <v>0.9893748164176941</v>
+        <v>0.9993174076080322</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0006783746066503227</v>
+        <v>0.007378552574664354</v>
       </c>
       <c r="B24">
-        <v>0.9998096823692322</v>
+        <v>0.9979428052902222</v>
       </c>
       <c r="C24">
-        <v>0.120012566447258</v>
+        <v>0.006112142466008663</v>
       </c>
       <c r="D24">
-        <v>0.9698736667633057</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.00023460372176487</v>
+        <v>0.006297868210822344</v>
       </c>
       <c r="B25">
-        <v>0.9998810291290283</v>
+        <v>0.9980713725090027</v>
       </c>
       <c r="C25">
-        <v>0.1029325649142265</v>
+        <v>0.006399996113032103</v>
       </c>
       <c r="D25">
-        <v>0.9720764756202698</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002408270229352638</v>
+        <v>0.007147795986384153</v>
       </c>
       <c r="B26">
-        <v>0.9999762177467346</v>
+        <v>0.9978876709938049</v>
       </c>
       <c r="C26">
-        <v>0.08144572377204895</v>
+        <v>0.004925710614770651</v>
       </c>
       <c r="D26">
-        <v>0.971558153629303</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002141760778613389</v>
+        <v>0.00653363298624754</v>
       </c>
       <c r="B27">
-        <v>0.9999524354934692</v>
+        <v>0.9980162978172302</v>
       </c>
       <c r="C27">
-        <v>0.02339489385485649</v>
+        <v>0.004610556177794933</v>
       </c>
       <c r="D27">
-        <v>0.9913831949234009</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>6.742334790033055E-06</v>
+        <v>0.005834972485899925</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9984387159347534</v>
       </c>
       <c r="C28">
-        <v>0.02253415063023567</v>
+        <v>0.005273810122162104</v>
       </c>
       <c r="D28">
-        <v>0.9898282885551453</v>
+        <v>0.9994311928749084</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>3.708075837494107E-06</v>
+        <v>0.006740238983184099</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.998034656047821</v>
       </c>
       <c r="C29">
-        <v>0.02027752995491028</v>
+        <v>0.004825949668884277</v>
       </c>
       <c r="D29">
-        <v>0.9924198389053345</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>3.424760507186875E-05</v>
+        <v>0.006428609136492014</v>
       </c>
       <c r="B30">
-        <v>0.9999762177467346</v>
+        <v>0.9981815814971924</v>
       </c>
       <c r="C30">
-        <v>0.2558261454105377</v>
+        <v>0.005068634636700153</v>
       </c>
       <c r="D30">
-        <v>0.9726595282554626</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0003287302097305655</v>
+        <v>0.006430354434996843</v>
       </c>
       <c r="B31">
-        <v>0.9998810291290283</v>
+        <v>0.9979428052902222</v>
       </c>
       <c r="C31">
-        <v>0.1695772558450699</v>
+        <v>0.005155091639608145</v>
       </c>
       <c r="D31">
-        <v>0.9683835506439209</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0002525378949940205</v>
+        <v>0.006752344314008951</v>
       </c>
       <c r="B32">
-        <v>0.9999286532402039</v>
+        <v>0.9979978799819946</v>
       </c>
       <c r="C32">
-        <v>0.07826665043830872</v>
+        <v>0.004562243353575468</v>
       </c>
       <c r="D32">
-        <v>0.9816650748252869</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001190787079394795</v>
+        <v>0.007262278813868761</v>
       </c>
       <c r="B33">
-        <v>0.9999762177467346</v>
+        <v>0.9977958798408508</v>
       </c>
       <c r="C33">
-        <v>0.03645901009440422</v>
+        <v>0.005167745985090733</v>
       </c>
       <c r="D33">
-        <v>0.9834142923355103</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1.664084265939891E-05</v>
+        <v>0.006900892127305269</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9980530142784119</v>
       </c>
       <c r="C34">
-        <v>0.0874493196606636</v>
+        <v>0.004928939044475555</v>
       </c>
       <c r="D34">
-        <v>0.9712989926338196</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1.723321020108415E-06</v>
+        <v>0.007021408528089523</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9978876709938049</v>
       </c>
       <c r="C35">
-        <v>0.08173640817403793</v>
+        <v>0.005121841095387936</v>
       </c>
       <c r="D35">
-        <v>0.9738256931304932</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0005151875084266067</v>
+        <v>0.006412471644580364</v>
       </c>
       <c r="B36">
-        <v>0.9998572468757629</v>
+        <v>0.9979060888290405</v>
       </c>
       <c r="C36">
-        <v>0.09086292237043381</v>
+        <v>0.005201456137001514</v>
       </c>
       <c r="D36">
-        <v>0.982118546962738</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2.262572479594382E-06</v>
+        <v>0.006987139116972685</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.997704029083252</v>
       </c>
       <c r="C37">
-        <v>0.08789768069982529</v>
+        <v>0.00593773927539587</v>
       </c>
       <c r="D37">
-        <v>0.9808875918388367</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.078737750503933E-05</v>
+        <v>0.006522070616483688</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9981448650360107</v>
       </c>
       <c r="C38">
-        <v>0.137903556227684</v>
+        <v>0.005954241845756769</v>
       </c>
       <c r="D38">
-        <v>0.9766116142272949</v>
+        <v>0.9996587038040161</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0004220107512082905</v>
+        <v>0.007356030400842428</v>
       </c>
       <c r="B39">
-        <v>0.9999286532402039</v>
+        <v>0.9977591037750244</v>
       </c>
       <c r="C39">
-        <v>0.001436696271412075</v>
+        <v>0.006488344166427851</v>
       </c>
       <c r="D39">
-        <v>0.9997408390045166</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3.321890835650265E-05</v>
+        <v>0.006055481266230345</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9981448650360107</v>
       </c>
       <c r="C40">
-        <v>0.01443362515419722</v>
+        <v>0.006335740443319082</v>
       </c>
       <c r="D40">
-        <v>0.9939747452735901</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002541666617617011</v>
+        <v>0.00661418167874217</v>
       </c>
       <c r="B41">
-        <v>0.9999286532402039</v>
+        <v>0.9980713725090027</v>
       </c>
       <c r="C41">
-        <v>0.02889314852654934</v>
+        <v>0.005276686977595091</v>
       </c>
       <c r="D41">
-        <v>0.9887269139289856</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0004066188121214509</v>
+        <v>0.006881479639559984</v>
       </c>
       <c r="B42">
-        <v>0.9999048709869385</v>
+        <v>0.998034656047821</v>
       </c>
       <c r="C42">
-        <v>0.02935216389596462</v>
+        <v>0.004894997458904982</v>
       </c>
       <c r="D42">
-        <v>0.9892452359199524</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>5.043599230702966E-05</v>
+        <v>0.006541045848280191</v>
       </c>
       <c r="B43">
-        <v>0.9999762177467346</v>
+        <v>0.9981999397277832</v>
       </c>
       <c r="C43">
-        <v>0.08521448075771332</v>
+        <v>0.004529612604528666</v>
       </c>
       <c r="D43">
-        <v>0.9816650748252869</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0002483845746610314</v>
+        <v>0.007214405573904514</v>
       </c>
       <c r="B44">
-        <v>0.9999048709869385</v>
+        <v>0.9977958798408508</v>
       </c>
       <c r="C44">
-        <v>0.1023170724511147</v>
+        <v>0.004190125036984682</v>
       </c>
       <c r="D44">
-        <v>0.9784904718399048</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>4.503139734879369E-06</v>
+        <v>0.007527525536715984</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9977591037750244</v>
       </c>
       <c r="C45">
-        <v>0.1078248023986816</v>
+        <v>0.005610976368188858</v>
       </c>
       <c r="D45">
-        <v>0.9791383147239685</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1.230624002346303E-05</v>
+        <v>0.006650392431765795</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9978876709938049</v>
       </c>
       <c r="C46">
-        <v>0.1033941954374313</v>
+        <v>0.005046019796282053</v>
       </c>
       <c r="D46">
-        <v>0.9754453897476196</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2.117780240951106E-05</v>
+        <v>0.006275233346968889</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9980530142784119</v>
       </c>
       <c r="C47">
-        <v>0.149808257818222</v>
+        <v>0.005442051682621241</v>
       </c>
       <c r="D47">
-        <v>0.9804340600967407</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0004955410258844495</v>
+        <v>0.006317498162388802</v>
       </c>
       <c r="B48">
-        <v>0.9999524354934692</v>
+        <v>0.997961163520813</v>
       </c>
       <c r="C48">
-        <v>0.1696703433990479</v>
+        <v>0.006495713256299496</v>
       </c>
       <c r="D48">
-        <v>0.9752510786056519</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>1.882000469777267E-05</v>
+        <v>0.006438801996409893</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9979795217514038</v>
       </c>
       <c r="C49">
-        <v>0.1662023365497589</v>
+        <v>0.006329809781163931</v>
       </c>
       <c r="D49">
-        <v>0.9747975468635559</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001867157407104969</v>
+        <v>0.007761974353343248</v>
       </c>
       <c r="B50">
-        <v>0.9999286532402039</v>
+        <v>0.9979244470596313</v>
       </c>
       <c r="C50">
-        <v>0.3324238061904907</v>
+        <v>0.005370510276407003</v>
       </c>
       <c r="D50">
-        <v>0.9698736667633057</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0003823704610113055</v>
+        <v>0.006703986320644617</v>
       </c>
       <c r="B51">
-        <v>0.9999286532402039</v>
+        <v>0.9978693127632141</v>
       </c>
       <c r="C51">
-        <v>0.3770400881767273</v>
+        <v>0.00586738670244813</v>
       </c>
       <c r="D51">
-        <v>0.9613864421844482</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_16.xlsx
+++ b/run_log/run_results/train_history/training_history_run_16.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1395025849342346</v>
+        <v>0.0703539177775383</v>
       </c>
       <c r="B2">
-        <v>0.9664603471755981</v>
+        <v>0.9795734882354736</v>
       </c>
       <c r="C2">
-        <v>0.01732644811272621</v>
+        <v>0.005070631392300129</v>
       </c>
       <c r="D2">
-        <v>0.9978384375572205</v>
+        <v>0.9990717172622681</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.02597234398126602</v>
+        <v>0.0113139022141695</v>
       </c>
       <c r="B3">
-        <v>0.9944161772727966</v>
+        <v>0.9982664585113525</v>
       </c>
       <c r="C3">
-        <v>0.01285681594163179</v>
+        <v>0.003721604123711586</v>
       </c>
       <c r="D3">
-        <v>0.9981797337532043</v>
+        <v>0.9993369579315186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01831133104860783</v>
+        <v>0.00702159246429801</v>
       </c>
       <c r="B4">
-        <v>0.9941774010658264</v>
+        <v>0.9986215233802795</v>
       </c>
       <c r="C4">
-        <v>0.00878625363111496</v>
+        <v>0.001183720538392663</v>
       </c>
       <c r="D4">
-        <v>0.9985210299491882</v>
+        <v>0.9993369579315186</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01359660737216473</v>
+        <v>0.003760518273338675</v>
       </c>
       <c r="B5">
-        <v>0.9949120879173279</v>
+        <v>0.9991227984428406</v>
       </c>
       <c r="C5">
-        <v>0.005402940325438976</v>
+        <v>0.0002141550794476643</v>
       </c>
       <c r="D5">
-        <v>0.9987486004829407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01151106134057045</v>
+        <v>0.002411472843959928</v>
       </c>
       <c r="B6">
-        <v>0.995316207408905</v>
+        <v>0.9994778633117676</v>
       </c>
       <c r="C6">
-        <v>0.004714337643235922</v>
+        <v>9.648475679568946E-05</v>
       </c>
       <c r="D6">
-        <v>0.9993174076080322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01155757997184992</v>
+        <v>0.001630087848752737</v>
       </c>
       <c r="B7">
-        <v>0.9953896999359131</v>
+        <v>0.9995405077934265</v>
       </c>
       <c r="C7">
-        <v>0.004734234418720007</v>
+        <v>3.223944440833293E-05</v>
       </c>
       <c r="D7">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01037962362170219</v>
+        <v>0.002014506608247757</v>
       </c>
       <c r="B8">
-        <v>0.9954080581665039</v>
+        <v>0.9995822906494141</v>
       </c>
       <c r="C8">
-        <v>0.005438288208097219</v>
+        <v>2.508226680220105E-05</v>
       </c>
       <c r="D8">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01127995643764734</v>
+        <v>0.00104352948255837</v>
       </c>
       <c r="B9">
-        <v>0.9948018789291382</v>
+        <v>0.9997493624687195</v>
       </c>
       <c r="C9">
-        <v>0.005241305101662874</v>
+        <v>4.614570934791118E-05</v>
       </c>
       <c r="D9">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01073058973997831</v>
+        <v>0.001174238394014537</v>
       </c>
       <c r="B10">
-        <v>0.9949672222137451</v>
+        <v>0.9996867179870605</v>
       </c>
       <c r="C10">
-        <v>0.004750982392579317</v>
+        <v>0.0001710880460450426</v>
       </c>
       <c r="D10">
-        <v>0.9995449185371399</v>
+        <v>0.9999337196350098</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01088981982320547</v>
+        <v>0.000663137121591717</v>
       </c>
       <c r="B11">
-        <v>0.9953345656394958</v>
+        <v>0.9998747110366821</v>
       </c>
       <c r="C11">
-        <v>0.005035346373915672</v>
+        <v>4.064757740707137E-05</v>
       </c>
       <c r="D11">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.009973933920264244</v>
+        <v>0.001226450898684561</v>
       </c>
       <c r="B12">
-        <v>0.9952243566513062</v>
+        <v>0.9998329281806946</v>
       </c>
       <c r="C12">
-        <v>0.005365626886487007</v>
+        <v>1.332003193965647E-05</v>
       </c>
       <c r="D12">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01005701813846827</v>
+        <v>0.0003111085679847747</v>
       </c>
       <c r="B13">
-        <v>0.9954999089241028</v>
+        <v>0.9999164342880249</v>
       </c>
       <c r="C13">
-        <v>0.005820718593895435</v>
+        <v>4.679050562117482E-06</v>
       </c>
       <c r="D13">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.009635179303586483</v>
+        <v>0.0007372401305474341</v>
       </c>
       <c r="B14">
-        <v>0.9962896704673767</v>
+        <v>0.9997702836990356</v>
       </c>
       <c r="C14">
-        <v>0.005509081296622753</v>
+        <v>1.64404127644957E-06</v>
       </c>
       <c r="D14">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.008531605824828148</v>
+        <v>0.0003883748140651733</v>
       </c>
       <c r="B15">
-        <v>0.9976673126220703</v>
+        <v>0.9998955726623535</v>
       </c>
       <c r="C15">
-        <v>0.006082512438297272</v>
+        <v>1.090363184630405E-06</v>
       </c>
       <c r="D15">
-        <v>0.9987486004829407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.007129268255084753</v>
+        <v>0.0007096432964317501</v>
       </c>
       <c r="B16">
-        <v>0.9978693127632141</v>
+        <v>0.9998329281806946</v>
       </c>
       <c r="C16">
-        <v>0.00595078943297267</v>
+        <v>4.650347364076879E-06</v>
       </c>
       <c r="D16">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.00708261551335454</v>
+        <v>0.0003715037018992007</v>
       </c>
       <c r="B17">
-        <v>0.9981265068054199</v>
+        <v>0.9998955726623535</v>
       </c>
       <c r="C17">
-        <v>0.006320483051240444</v>
+        <v>6.232102691683394E-07</v>
       </c>
       <c r="D17">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.007292637601494789</v>
+        <v>0.000333794770995155</v>
       </c>
       <c r="B18">
-        <v>0.9977958798408508</v>
+        <v>0.9999164342880249</v>
       </c>
       <c r="C18">
-        <v>0.00592965679243207</v>
+        <v>1.69585788967197E-07</v>
       </c>
       <c r="D18">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.006568565033376217</v>
+        <v>0.0007025942904874682</v>
       </c>
       <c r="B19">
-        <v>0.9981080889701843</v>
+        <v>0.999791145324707</v>
       </c>
       <c r="C19">
-        <v>0.006541531998664141</v>
+        <v>7.282476872205734E-06</v>
       </c>
       <c r="D19">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.007550589274615049</v>
+        <v>0.0002376369229750708</v>
       </c>
       <c r="B20">
-        <v>0.9977223873138428</v>
+        <v>0.9999164342880249</v>
       </c>
       <c r="C20">
-        <v>0.006911433301866055</v>
+        <v>5.816940529257408E-07</v>
       </c>
       <c r="D20">
-        <v>0.9993174076080322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.006698807701468468</v>
+        <v>0.0004891667049378157</v>
       </c>
       <c r="B21">
-        <v>0.9981265068054199</v>
+        <v>0.9998955726623535</v>
       </c>
       <c r="C21">
-        <v>0.006295342929661274</v>
+        <v>2.341200513455988E-07</v>
       </c>
       <c r="D21">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.007235968019813299</v>
+        <v>0.0005570605862885714</v>
       </c>
       <c r="B22">
-        <v>0.9977591037750244</v>
+        <v>0.999791145324707</v>
       </c>
       <c r="C22">
-        <v>0.006155957467854023</v>
+        <v>7.617665573889099E-07</v>
       </c>
       <c r="D22">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0072016641497612</v>
+        <v>2.429872984066606E-05</v>
       </c>
       <c r="B23">
-        <v>0.9979428052902222</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.00726740388199687</v>
+        <v>3.120296980796411E-07</v>
       </c>
       <c r="D23">
-        <v>0.9993174076080322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.007378552574664354</v>
+        <v>0.000293505028821528</v>
       </c>
       <c r="B24">
-        <v>0.9979428052902222</v>
+        <v>0.9998955726623535</v>
       </c>
       <c r="C24">
-        <v>0.006112142466008663</v>
+        <v>4.836655307371984E-07</v>
       </c>
       <c r="D24">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.006297868210822344</v>
+        <v>0.0005031879409216344</v>
       </c>
       <c r="B25">
-        <v>0.9980713725090027</v>
+        <v>0.9998747110366821</v>
       </c>
       <c r="C25">
-        <v>0.006399996113032103</v>
+        <v>0.0001252242218470201</v>
       </c>
       <c r="D25">
-        <v>0.9995449185371399</v>
+        <v>0.9999337196350098</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.007147795986384153</v>
+        <v>6.838005356257781E-05</v>
       </c>
       <c r="B26">
-        <v>0.9978876709938049</v>
+        <v>0.9999582171440125</v>
       </c>
       <c r="C26">
-        <v>0.004925710614770651</v>
+        <v>2.482701404460386E-07</v>
       </c>
       <c r="D26">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.00653363298624754</v>
+        <v>3.947609366150573E-05</v>
       </c>
       <c r="B27">
-        <v>0.9980162978172302</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C27">
-        <v>0.004610556177794933</v>
+        <v>4.202100711836465E-08</v>
       </c>
       <c r="D27">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.005834972485899925</v>
+        <v>0.0001154251804109663</v>
       </c>
       <c r="B28">
-        <v>0.9984387159347534</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C28">
-        <v>0.005273810122162104</v>
+        <v>7.362027787394254E-08</v>
       </c>
       <c r="D28">
-        <v>0.9994311928749084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.006740238983184099</v>
+        <v>0.0003693216713145375</v>
       </c>
       <c r="B29">
-        <v>0.998034656047821</v>
+        <v>0.9998955726623535</v>
       </c>
       <c r="C29">
-        <v>0.004825949668884277</v>
+        <v>4.527093011574834E-08</v>
       </c>
       <c r="D29">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.006428609136492014</v>
+        <v>0.0002016418147832155</v>
       </c>
       <c r="B30">
-        <v>0.9981815814971924</v>
+        <v>0.9999164342880249</v>
       </c>
       <c r="C30">
-        <v>0.005068634636700153</v>
+        <v>7.234248045051572E-08</v>
       </c>
       <c r="D30">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.006430354434996843</v>
+        <v>0.0001641871349420398</v>
       </c>
       <c r="B31">
-        <v>0.9979428052902222</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C31">
-        <v>0.005155091639608145</v>
+        <v>8.22650861209695E-07</v>
       </c>
       <c r="D31">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.006752344314008951</v>
+        <v>5.290194894769229E-05</v>
       </c>
       <c r="B32">
-        <v>0.9979978799819946</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C32">
-        <v>0.004562243353575468</v>
+        <v>1.711826946859674E-08</v>
       </c>
       <c r="D32">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.007262278813868761</v>
+        <v>0.0009313809568993747</v>
       </c>
       <c r="B33">
-        <v>0.9977958798408508</v>
+        <v>0.9999164342880249</v>
       </c>
       <c r="C33">
-        <v>0.005167745985090733</v>
+        <v>1.256234190805117E-05</v>
       </c>
       <c r="D33">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.006900892127305269</v>
+        <v>0.000539662956725806</v>
       </c>
       <c r="B34">
-        <v>0.9980530142784119</v>
+        <v>0.9998747110366821</v>
       </c>
       <c r="C34">
-        <v>0.004928939044475555</v>
+        <v>3.499355116787228E-08</v>
       </c>
       <c r="D34">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.007021408528089523</v>
+        <v>0.000206370372325182</v>
       </c>
       <c r="B35">
-        <v>0.9978876709938049</v>
+        <v>0.9999373555183411</v>
       </c>
       <c r="C35">
-        <v>0.005121841095387936</v>
+        <v>4.434132616637498E-09</v>
       </c>
       <c r="D35">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.006412471644580364</v>
+        <v>0.0004632231430150568</v>
       </c>
       <c r="B36">
-        <v>0.9979060888290405</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C36">
-        <v>0.005201456137001514</v>
+        <v>1.039889028220387E-07</v>
       </c>
       <c r="D36">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.006987139116972685</v>
+        <v>0.0002641478786244988</v>
       </c>
       <c r="B37">
-        <v>0.997704029083252</v>
+        <v>0.9999373555183411</v>
       </c>
       <c r="C37">
-        <v>0.00593773927539587</v>
+        <v>3.613794419266014E-08</v>
       </c>
       <c r="D37">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.006522070616483688</v>
+        <v>0.0004862137429881841</v>
       </c>
       <c r="B38">
-        <v>0.9981448650360107</v>
+        <v>0.9999373555183411</v>
       </c>
       <c r="C38">
-        <v>0.005954241845756769</v>
+        <v>2.187617731408409E-08</v>
       </c>
       <c r="D38">
-        <v>0.9996587038040161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.007356030400842428</v>
+        <v>0.0001101760863093659</v>
       </c>
       <c r="B39">
-        <v>0.9977591037750244</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C39">
-        <v>0.006488344166427851</v>
+        <v>6.789515172300753E-09</v>
       </c>
       <c r="D39">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.006055481266230345</v>
+        <v>7.509037095587701E-05</v>
       </c>
       <c r="B40">
-        <v>0.9981448650360107</v>
+        <v>0.9999582171440125</v>
       </c>
       <c r="C40">
-        <v>0.006335740443319082</v>
+        <v>3.881399379679351E-08</v>
       </c>
       <c r="D40">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.00661418167874217</v>
+        <v>0.0005306308157742023</v>
       </c>
       <c r="B41">
-        <v>0.9980713725090027</v>
+        <v>0.9999373555183411</v>
       </c>
       <c r="C41">
-        <v>0.005276686977595091</v>
+        <v>1.312072894776861E-09</v>
       </c>
       <c r="D41">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.006881479639559984</v>
+        <v>9.13270196178928E-05</v>
       </c>
       <c r="B42">
-        <v>0.998034656047821</v>
+        <v>0.9999582171440125</v>
       </c>
       <c r="C42">
-        <v>0.004894997458904982</v>
+        <v>1.187619318443467E-06</v>
       </c>
       <c r="D42">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.006541045848280191</v>
+        <v>0.0003492504765745252</v>
       </c>
       <c r="B43">
-        <v>0.9981999397277832</v>
+        <v>0.9999582171440125</v>
       </c>
       <c r="C43">
-        <v>0.004529612604528666</v>
+        <v>1.738888255609083E-09</v>
       </c>
       <c r="D43">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.007214405573904514</v>
+        <v>0.0006606105016544461</v>
       </c>
       <c r="B44">
-        <v>0.9977958798408508</v>
+        <v>0.9998747110366821</v>
       </c>
       <c r="C44">
-        <v>0.004190125036984682</v>
+        <v>3.232746514925111E-09</v>
       </c>
       <c r="D44">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.007527525536715984</v>
+        <v>0.0002859742671716958</v>
       </c>
       <c r="B45">
-        <v>0.9977591037750244</v>
+        <v>0.9999373555183411</v>
       </c>
       <c r="C45">
-        <v>0.005610976368188858</v>
+        <v>2.529296994069341E-09</v>
       </c>
       <c r="D45">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.006650392431765795</v>
+        <v>0.0002667694934643805</v>
       </c>
       <c r="B46">
-        <v>0.9978876709938049</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C46">
-        <v>0.005046019796282053</v>
+        <v>1.201417854090892E-09</v>
       </c>
       <c r="D46">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.006275233346968889</v>
+        <v>0.0005186922498978674</v>
       </c>
       <c r="B47">
-        <v>0.9980530142784119</v>
+        <v>0.9998955726623535</v>
       </c>
       <c r="C47">
-        <v>0.005442051682621241</v>
+        <v>8.898423971004377E-07</v>
       </c>
       <c r="D47">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.006317498162388802</v>
+        <v>4.826203803531826E-05</v>
       </c>
       <c r="B48">
-        <v>0.997961163520813</v>
+        <v>0.9999791383743286</v>
       </c>
       <c r="C48">
-        <v>0.006495713256299496</v>
+        <v>6.283572773213564E-09</v>
       </c>
       <c r="D48">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.006438801996409893</v>
+        <v>1.567370054544881E-05</v>
       </c>
       <c r="B49">
-        <v>0.9979795217514038</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.006329809781163931</v>
+        <v>4.523637286979465E-08</v>
       </c>
       <c r="D49">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.007761974353343248</v>
+        <v>7.722579539404251E-06</v>
       </c>
       <c r="B50">
-        <v>0.9979244470596313</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.005370510276407003</v>
+        <v>7.516420374997779E-09</v>
       </c>
       <c r="D50">
-        <v>0.9995449185371399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.006703986320644617</v>
+        <v>6.004908300383249E-06</v>
       </c>
       <c r="B51">
-        <v>0.9978693127632141</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.00586738670244813</v>
+        <v>7.113668681890672E-11</v>
       </c>
       <c r="D51">
-        <v>0.9997724890708923</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_16.xlsx
+++ b/run_log/run_results/train_history/training_history_run_16.xlsx
@@ -395,55 +395,55 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0703539177775383</v>
+        <v>0.05426330119371414</v>
       </c>
       <c r="B2">
-        <v>0.9795734882354736</v>
+        <v>0.9860075712203979</v>
       </c>
       <c r="C2">
-        <v>0.005070631392300129</v>
+        <v>0.02887767739593983</v>
       </c>
       <c r="D2">
-        <v>0.9990717172622681</v>
+        <v>0.9953567981719971</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.0113139022141695</v>
+        <v>0.009407783858478069</v>
       </c>
       <c r="B3">
-        <v>0.9982664585113525</v>
+        <v>0.9983304738998413</v>
       </c>
       <c r="C3">
-        <v>0.003721604123711586</v>
+        <v>0.01511609647423029</v>
       </c>
       <c r="D3">
-        <v>0.9993369579315186</v>
+        <v>0.9960899353027344</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.00702159246429801</v>
+        <v>0.004760540090501308</v>
       </c>
       <c r="B4">
-        <v>0.9986215233802795</v>
+        <v>0.9987080693244934</v>
       </c>
       <c r="C4">
-        <v>0.001183720538392663</v>
+        <v>0.003963137045502663</v>
       </c>
       <c r="D4">
-        <v>0.9993369579315186</v>
+        <v>0.9978005886077881</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003760518273338675</v>
+        <v>0.00272815371863544</v>
       </c>
       <c r="B5">
-        <v>0.9991227984428406</v>
+        <v>0.999403715133667</v>
       </c>
       <c r="C5">
-        <v>0.0002141550794476643</v>
+        <v>0.0005846252315677702</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -451,13 +451,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002411472843959928</v>
+        <v>0.001506247208453715</v>
       </c>
       <c r="B6">
-        <v>0.9994778633117676</v>
+        <v>0.9995229840278625</v>
       </c>
       <c r="C6">
-        <v>9.648475679568946E-05</v>
+        <v>0.0002919467224273831</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -465,41 +465,41 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001630087848752737</v>
+        <v>0.001273780129849911</v>
       </c>
       <c r="B7">
-        <v>0.9995405077934265</v>
+        <v>0.9995229840278625</v>
       </c>
       <c r="C7">
-        <v>3.223944440833293E-05</v>
+        <v>0.0003336528607178479</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9997556209564209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.002014506608247757</v>
+        <v>0.0015819794498384</v>
       </c>
       <c r="B8">
-        <v>0.9995822906494141</v>
+        <v>0.9994633793830872</v>
       </c>
       <c r="C8">
-        <v>2.508226680220105E-05</v>
+        <v>0.0004527504206635058</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9995112419128418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.00104352948255837</v>
+        <v>0.0006882870802655816</v>
       </c>
       <c r="B9">
-        <v>0.9997493624687195</v>
+        <v>0.9998409748077393</v>
       </c>
       <c r="C9">
-        <v>4.614570934791118E-05</v>
+        <v>8.262062328867614E-05</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -507,27 +507,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001174238394014537</v>
+        <v>0.001153822522610426</v>
       </c>
       <c r="B10">
-        <v>0.9996867179870605</v>
+        <v>0.9997018575668335</v>
       </c>
       <c r="C10">
-        <v>0.0001710880460450426</v>
+        <v>0.0001179013997898437</v>
       </c>
       <c r="D10">
-        <v>0.9999337196350098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.000663137121591717</v>
+        <v>0.000512516766320914</v>
       </c>
       <c r="B11">
-        <v>0.9998747110366821</v>
+        <v>0.9998409748077393</v>
       </c>
       <c r="C11">
-        <v>4.064757740707137E-05</v>
+        <v>1.266226445295615E-05</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -535,27 +535,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.001226450898684561</v>
+        <v>0.0006529099773615599</v>
       </c>
       <c r="B12">
-        <v>0.9998329281806946</v>
+        <v>0.9997813701629639</v>
       </c>
       <c r="C12">
-        <v>1.332003193965647E-05</v>
+        <v>0.0002332705189473927</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9997556209564209</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0003111085679847747</v>
+        <v>0.0005341874784789979</v>
       </c>
       <c r="B13">
-        <v>0.9999164342880249</v>
+        <v>0.9998608827590942</v>
       </c>
       <c r="C13">
-        <v>4.679050562117482E-06</v>
+        <v>7.043559435260249E-06</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0007372401305474341</v>
+        <v>0.0006503761978819966</v>
       </c>
       <c r="B14">
-        <v>0.9997702836990356</v>
+        <v>0.9997615218162537</v>
       </c>
       <c r="C14">
-        <v>1.64404127644957E-06</v>
+        <v>5.714269354939461E-05</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0003883748140651733</v>
+        <v>0.0001791017857613042</v>
       </c>
       <c r="B15">
-        <v>0.9998955726623535</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="C15">
-        <v>1.090363184630405E-06</v>
+        <v>1.037123297464859E-06</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0007096432964317501</v>
+        <v>0.0005436852807179093</v>
       </c>
       <c r="B16">
-        <v>0.9998329281806946</v>
+        <v>0.9998012185096741</v>
       </c>
       <c r="C16">
-        <v>4.650347364076879E-06</v>
+        <v>1.303612748415617E-06</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0003715037018992007</v>
+        <v>0.000437789160059765</v>
       </c>
       <c r="B17">
-        <v>0.9998955726623535</v>
+        <v>0.9998409748077393</v>
       </c>
       <c r="C17">
-        <v>6.232102691683394E-07</v>
+        <v>5.712416282221966E-07</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.000333794770995155</v>
+        <v>0.0007883654325269163</v>
       </c>
       <c r="B18">
-        <v>0.9999164342880249</v>
+        <v>0.9997813701629639</v>
       </c>
       <c r="C18">
-        <v>1.69585788967197E-07</v>
+        <v>1.757780637490214E-06</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0007025942904874682</v>
+        <v>0.0005108626210130751</v>
       </c>
       <c r="B19">
-        <v>0.999791145324707</v>
+        <v>0.9998012185096741</v>
       </c>
       <c r="C19">
-        <v>7.282476872205734E-06</v>
+        <v>7.616019956913078E-07</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0002376369229750708</v>
+        <v>9.293340553995222E-05</v>
       </c>
       <c r="B20">
-        <v>0.9999164342880249</v>
+        <v>0.9999801516532898</v>
       </c>
       <c r="C20">
-        <v>5.816940529257408E-07</v>
+        <v>4.075154265592573E-06</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0004891667049378157</v>
+        <v>0.0003835852257907391</v>
       </c>
       <c r="B21">
-        <v>0.9998955726623535</v>
+        <v>0.9999006390571594</v>
       </c>
       <c r="C21">
-        <v>2.341200513455988E-07</v>
+        <v>1.660624207033834E-07</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0005570605862885714</v>
+        <v>2.202675568696577E-05</v>
       </c>
       <c r="B22">
-        <v>0.999791145324707</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>7.617665573889099E-07</v>
+        <v>1.919956957863178E-07</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>2.429872984066606E-05</v>
+        <v>0.0006493227556347847</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9999006390571594</v>
       </c>
       <c r="C23">
-        <v>3.120296980796411E-07</v>
+        <v>1.299254677178396E-07</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.000293505028821528</v>
+        <v>1.635597618587781E-05</v>
       </c>
       <c r="B24">
-        <v>0.9998955726623535</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>4.836655307371984E-07</v>
+        <v>5.394887026000106E-08</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,27 +717,27 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0005031879409216344</v>
+        <v>0.0009091651299968362</v>
       </c>
       <c r="B25">
-        <v>0.9998747110366821</v>
+        <v>0.9998807311058044</v>
       </c>
       <c r="C25">
-        <v>0.0001252242218470201</v>
+        <v>8.584633178543299E-06</v>
       </c>
       <c r="D25">
-        <v>0.9999337196350098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6.838005356257781E-05</v>
+        <v>0.0005335803143680096</v>
       </c>
       <c r="B26">
-        <v>0.9999582171440125</v>
+        <v>0.9999403953552246</v>
       </c>
       <c r="C26">
-        <v>2.482701404460386E-07</v>
+        <v>8.121498467517085E-06</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.947609366150573E-05</v>
+        <v>0.0006532507250085473</v>
       </c>
       <c r="B27">
-        <v>0.9999791383743286</v>
+        <v>0.9998807311058044</v>
       </c>
       <c r="C27">
-        <v>4.202100711836465E-08</v>
+        <v>3.167456497976673E-06</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0001154251804109663</v>
+        <v>8.932907076086849E-05</v>
       </c>
       <c r="B28">
-        <v>0.9999791383743286</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="C28">
-        <v>7.362027787394254E-08</v>
+        <v>1.095687821361935E-06</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0003693216713145375</v>
+        <v>0.0001163829147117212</v>
       </c>
       <c r="B29">
-        <v>0.9998955726623535</v>
+        <v>0.9999204874038696</v>
       </c>
       <c r="C29">
-        <v>4.527093011574834E-08</v>
+        <v>9.694232971924066E-08</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0002016418147832155</v>
+        <v>0.000612867355812341</v>
       </c>
       <c r="B30">
-        <v>0.9999164342880249</v>
+        <v>0.9998807311058044</v>
       </c>
       <c r="C30">
-        <v>7.234248045051572E-08</v>
+        <v>1.201821078211651E-06</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0001641871349420398</v>
+        <v>0.0001545879349578172</v>
       </c>
       <c r="B31">
-        <v>0.9999791383743286</v>
+        <v>0.9999403953552246</v>
       </c>
       <c r="C31">
-        <v>8.22650861209695E-07</v>
+        <v>8.528054991074896E-07</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>5.290194894769229E-05</v>
+        <v>0.0001932430604938418</v>
       </c>
       <c r="B32">
-        <v>0.9999791383743286</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="C32">
-        <v>1.711826946859674E-08</v>
+        <v>4.237329847001092E-07</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0009313809568993747</v>
+        <v>0.0005914644571021199</v>
       </c>
       <c r="B33">
-        <v>0.9999164342880249</v>
+        <v>0.9998409748077393</v>
       </c>
       <c r="C33">
-        <v>1.256234190805117E-05</v>
+        <v>2.227418320899233E-07</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.000539662956725806</v>
+        <v>4.286908006179146E-05</v>
       </c>
       <c r="B34">
-        <v>0.9998747110366821</v>
+        <v>0.9999801516532898</v>
       </c>
       <c r="C34">
-        <v>3.499355116787228E-08</v>
+        <v>3.948123890040733E-07</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.000206370372325182</v>
+        <v>4.72977917524986E-05</v>
       </c>
       <c r="B35">
-        <v>0.9999373555183411</v>
+        <v>0.9999801516532898</v>
       </c>
       <c r="C35">
-        <v>4.434132616637498E-09</v>
+        <v>3.577325287551503E-06</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0004632231430150568</v>
+        <v>8.08629920356907E-06</v>
       </c>
       <c r="B36">
-        <v>0.9999791383743286</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1.039889028220387E-07</v>
+        <v>1.246882703753727E-07</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0002641478786244988</v>
+        <v>0.0001153373013949022</v>
       </c>
       <c r="B37">
-        <v>0.9999373555183411</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="C37">
-        <v>3.613794419266014E-08</v>
+        <v>3.052922181723261E-08</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0004862137429881841</v>
+        <v>0.0001846843370003626</v>
       </c>
       <c r="B38">
-        <v>0.9999373555183411</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="C38">
-        <v>2.187617731408409E-08</v>
+        <v>2.112530455633532E-05</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001101760863093659</v>
+        <v>0.0003542202175594866</v>
       </c>
       <c r="B39">
-        <v>0.9999791383743286</v>
+        <v>0.9999403953552246</v>
       </c>
       <c r="C39">
-        <v>6.789515172300753E-09</v>
+        <v>1.246841208057958E-08</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>7.509037095587701E-05</v>
+        <v>0.0001188235764857382</v>
       </c>
       <c r="B40">
-        <v>0.9999582171440125</v>
+        <v>0.9999801516532898</v>
       </c>
       <c r="C40">
-        <v>3.881399379679351E-08</v>
+        <v>8.060071365889598E-08</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0005306308157742023</v>
+        <v>1.567881736264098E-05</v>
       </c>
       <c r="B41">
-        <v>0.9999373555183411</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1.312072894776861E-09</v>
+        <v>2.770335072455055E-08</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>9.13270196178928E-05</v>
+        <v>0.0002285463851876557</v>
       </c>
       <c r="B42">
-        <v>0.9999582171440125</v>
+        <v>0.9999403953552246</v>
       </c>
       <c r="C42">
-        <v>1.187619318443467E-06</v>
+        <v>3.565592976428889E-08</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0003492504765745252</v>
+        <v>1.176493333332473E-05</v>
       </c>
       <c r="B43">
-        <v>0.9999582171440125</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.738888255609083E-09</v>
+        <v>1.04001651735075E-08</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0006606105016544461</v>
+        <v>0.0005205409834161401</v>
       </c>
       <c r="B44">
-        <v>0.9998747110366821</v>
+        <v>0.9999006390571594</v>
       </c>
       <c r="C44">
-        <v>3.232746514925111E-09</v>
+        <v>6.624172499414271E-08</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0002859742671716958</v>
+        <v>9.480329936195631E-06</v>
       </c>
       <c r="B45">
-        <v>0.9999373555183411</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>2.529296994069341E-09</v>
+        <v>5.681357606590609E-07</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0002667694934643805</v>
+        <v>8.399745274800807E-05</v>
       </c>
       <c r="B46">
-        <v>0.9999791383743286</v>
+        <v>0.9999801516532898</v>
       </c>
       <c r="C46">
-        <v>1.201417854090892E-09</v>
+        <v>3.10118707602669E-06</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0005186922498978674</v>
+        <v>6.582752575923223E-06</v>
       </c>
       <c r="B47">
-        <v>0.9998955726623535</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>8.898423971004377E-07</v>
+        <v>1.958312896022107E-05</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>4.826203803531826E-05</v>
+        <v>0.0001552749308757484</v>
       </c>
       <c r="B48">
-        <v>0.9999791383743286</v>
+        <v>0.9999801516532898</v>
       </c>
       <c r="C48">
-        <v>6.283572773213564E-09</v>
+        <v>7.133693088690052E-06</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>1.567370054544881E-05</v>
+        <v>0.0004201754927635193</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="C49">
-        <v>4.523637286979465E-08</v>
+        <v>2.272312560336331E-09</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>7.722579539404251E-06</v>
+        <v>4.054515557072591E-06</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>7.516420374997779E-09</v>
+        <v>1.689669293369889E-09</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>6.004908300383249E-06</v>
+        <v>0.0002574236714281142</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9999403953552246</v>
       </c>
       <c r="C51">
-        <v>7.113668681890672E-11</v>
+        <v>1.187149905490514E-06</v>
       </c>
       <c r="D51">
         <v>1</v>
